--- a/assignment_result.xlsx
+++ b/assignment_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8535" windowHeight="6120" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="8535" windowHeight="6120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="119">
   <si>
     <t>Anusha178</t>
   </si>
@@ -1393,9 +1393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E13" sqref="E13"/>
+      <selection pane="topRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,6 +1405,7 @@
     <col min="3" max="3" width="96.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -1691,7 +1692,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>109</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>40</v>
       </c>
@@ -1716,12 +1717,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
@@ -1738,12 +1739,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1754,7 +1755,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -1768,7 +1769,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -1810,7 +1811,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -1823,8 +1824,11 @@
       <c r="D27" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
@@ -1837,8 +1841,11 @@
       <c r="E28" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -1851,8 +1858,11 @@
       <c r="D29" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>81</v>
       </c>
@@ -1869,17 +1879,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>101</v>
       </c>
@@ -1892,8 +1902,11 @@
       <c r="D33" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>50</v>
       </c>
@@ -1909,8 +1922,11 @@
       <c r="E34" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>113</v>
       </c>
@@ -1924,8 +1940,11 @@
       <c r="E35" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -1941,8 +1960,11 @@
       <c r="E36" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -1954,13 +1976,16 @@
       <c r="E37" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>53</v>
       </c>
@@ -1974,7 +1999,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>54</v>
       </c>
@@ -1985,22 +2010,22 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>58</v>
       </c>
